--- a/Meme.xlsx
+++ b/Meme.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12729" uniqueCount="4973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13197" uniqueCount="5113">
   <si>
     <t>Image ID</t>
   </si>
@@ -14954,6 +14954,426 @@
   </si>
   <si>
     <t>Finally a page where I can upload my mimix without waiting for approval</t>
+  </si>
+  <si>
+    <t>মানুষ মানুষের জন্য</t>
+  </si>
+  <si>
+    <t>E-2513</t>
+  </si>
+  <si>
+    <t>E-2514</t>
+  </si>
+  <si>
+    <t>E-2515</t>
+  </si>
+  <si>
+    <t>E-2516</t>
+  </si>
+  <si>
+    <t>E-2517</t>
+  </si>
+  <si>
+    <t>E-2518</t>
+  </si>
+  <si>
+    <t>E-2519</t>
+  </si>
+  <si>
+    <t>E-2520</t>
+  </si>
+  <si>
+    <t>E-2521</t>
+  </si>
+  <si>
+    <t>E-2522</t>
+  </si>
+  <si>
+    <t>E-2523</t>
+  </si>
+  <si>
+    <t>E-2524</t>
+  </si>
+  <si>
+    <t>E-2525</t>
+  </si>
+  <si>
+    <t>E-2526</t>
+  </si>
+  <si>
+    <t>E-2527</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">আর দিবি? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">এক্টু চালাক না হলে টিকা যায় না। </t>
+  </si>
+  <si>
+    <t>O-1</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>O-2</t>
+  </si>
+  <si>
+    <t>O-3</t>
+  </si>
+  <si>
+    <t>O-4</t>
+  </si>
+  <si>
+    <t>আসলে তারা দুজনেই ভিক্ষুক!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">উন্নয়ন </t>
+  </si>
+  <si>
+    <t>O-5</t>
+  </si>
+  <si>
+    <t>O-6</t>
+  </si>
+  <si>
+    <t>O-7</t>
+  </si>
+  <si>
+    <t>O-8</t>
+  </si>
+  <si>
+    <t>O-9</t>
+  </si>
+  <si>
+    <t>O-10</t>
+  </si>
+  <si>
+    <t>O-11</t>
+  </si>
+  <si>
+    <t>কথা বলেন ঠিক কিনা</t>
+  </si>
+  <si>
+    <t>Nowadays Polapain be like -</t>
+  </si>
+  <si>
+    <t>মাতাল করা ঘ্রান</t>
+  </si>
+  <si>
+    <t>Relatable!!</t>
+  </si>
+  <si>
+    <t>চুলকায়?</t>
+  </si>
+  <si>
+    <t>উচিৎ জবাব ।</t>
+  </si>
+  <si>
+    <t>O-12</t>
+  </si>
+  <si>
+    <t>O-13</t>
+  </si>
+  <si>
+    <t>O-14</t>
+  </si>
+  <si>
+    <t>O-15</t>
+  </si>
+  <si>
+    <t>O-16</t>
+  </si>
+  <si>
+    <t>O-17</t>
+  </si>
+  <si>
+    <t>O-18</t>
+  </si>
+  <si>
+    <t>O-19</t>
+  </si>
+  <si>
+    <t>O-20</t>
+  </si>
+  <si>
+    <t>O-21</t>
+  </si>
+  <si>
+    <t>O-22</t>
+  </si>
+  <si>
+    <t>O-23</t>
+  </si>
+  <si>
+    <t>O-24</t>
+  </si>
+  <si>
+    <t>O-25</t>
+  </si>
+  <si>
+    <t>O-26</t>
+  </si>
+  <si>
+    <t>O-27</t>
+  </si>
+  <si>
+    <t>O-28</t>
+  </si>
+  <si>
+    <t>O-29</t>
+  </si>
+  <si>
+    <t>O-30</t>
+  </si>
+  <si>
+    <t>O-31</t>
+  </si>
+  <si>
+    <t>O-32</t>
+  </si>
+  <si>
+    <t>O-33</t>
+  </si>
+  <si>
+    <t>O-34</t>
+  </si>
+  <si>
+    <t>মহত্ত্বের এপিঠ ওপিঠ.!</t>
+  </si>
+  <si>
+    <t>এ্যাহ!!......</t>
+  </si>
+  <si>
+    <t>আহারে বুদ্ধি।</t>
+  </si>
+  <si>
+    <t>ওরা তো..</t>
+  </si>
+  <si>
+    <t>হে যুবক, আওয়াজ দাও!</t>
+  </si>
+  <si>
+    <t>আল্লাহর লা*নত পড়ুক</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/halalentertainment1/media</t>
+  </si>
+  <si>
+    <t>O-35</t>
+  </si>
+  <si>
+    <t>একটার গলায় দেখি ইউ ইউ চেইন.....</t>
+  </si>
+  <si>
+    <t>আপনার জন্য পৃথিবী থেকে সিঙারা আর কোক নিয়া আসছি...</t>
+  </si>
+  <si>
+    <t>O-36</t>
+  </si>
+  <si>
+    <t>O-37</t>
+  </si>
+  <si>
+    <t>ফুট্টুস......</t>
+  </si>
+  <si>
+    <t>O-38</t>
+  </si>
+  <si>
+    <t>বলেন......</t>
+  </si>
+  <si>
+    <t>খুব কষ্ট হচ্ছে না...?</t>
+  </si>
+  <si>
+    <t>O-39</t>
+  </si>
+  <si>
+    <t>O-40</t>
+  </si>
+  <si>
+    <t>O-41</t>
+  </si>
+  <si>
+    <t>Bal কে অনুসরণ করতেছে নাকি এরা.....</t>
+  </si>
+  <si>
+    <t>O-42</t>
+  </si>
+  <si>
+    <t>উন্নয়ন.....</t>
+  </si>
+  <si>
+    <t>O-43</t>
+  </si>
+  <si>
+    <t>সহমত.....</t>
+  </si>
+  <si>
+    <t>O-44</t>
+  </si>
+  <si>
+    <t>এসব আমাদের দুই মিনিটের কাজ.....</t>
+  </si>
+  <si>
+    <t>O-45</t>
+  </si>
+  <si>
+    <t>O-46</t>
+  </si>
+  <si>
+    <t>O-47</t>
+  </si>
+  <si>
+    <t>O-48</t>
+  </si>
+  <si>
+    <t>O-49</t>
+  </si>
+  <si>
+    <t>O-50</t>
+  </si>
+  <si>
+    <t>বুঝা আমারে.</t>
+  </si>
+  <si>
+    <t>O-51</t>
+  </si>
+  <si>
+    <t>O-52</t>
+  </si>
+  <si>
+    <t>O-53</t>
+  </si>
+  <si>
+    <t>O-54</t>
+  </si>
+  <si>
+    <t>O-55</t>
+  </si>
+  <si>
+    <t>O-56</t>
+  </si>
+  <si>
+    <t>O-57</t>
+  </si>
+  <si>
+    <t>O-58</t>
+  </si>
+  <si>
+    <t>O-59</t>
+  </si>
+  <si>
+    <t>O-60</t>
+  </si>
+  <si>
+    <t>ঢাকা বোর্ডের ব্রাজিলিয়ান ভাই/বোনেরা 4 নাম্বার প্রশ্নের Ans কি দিলেন?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">বাংলাদেশ চাঁদে গেলে </t>
+  </si>
+  <si>
+    <t xml:space="preserve">related?  </t>
+  </si>
+  <si>
+    <t>O-61</t>
+  </si>
+  <si>
+    <t>O-62</t>
+  </si>
+  <si>
+    <t>O-63</t>
+  </si>
+  <si>
+    <t>O-64</t>
+  </si>
+  <si>
+    <t>O-65</t>
+  </si>
+  <si>
+    <t>O-66</t>
+  </si>
+  <si>
+    <t>O-67</t>
+  </si>
+  <si>
+    <t>O-68</t>
+  </si>
+  <si>
+    <t>O-69</t>
+  </si>
+  <si>
+    <t>O-70</t>
+  </si>
+  <si>
+    <t>O-71</t>
+  </si>
+  <si>
+    <t>O-72</t>
+  </si>
+  <si>
+    <t>O-73</t>
+  </si>
+  <si>
+    <t>O-74</t>
+  </si>
+  <si>
+    <t>O-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">বুঝছো? </t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Caption.Official.XD/photos</t>
+  </si>
+  <si>
+    <t>ব্যথা করে মনু?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">কি করবে কক দিয়ে </t>
+  </si>
+  <si>
+    <t>O-76</t>
+  </si>
+  <si>
+    <t>O-77</t>
+  </si>
+  <si>
+    <t>O-78</t>
+  </si>
+  <si>
+    <t>O-79</t>
+  </si>
+  <si>
+    <t>O-80</t>
+  </si>
+  <si>
+    <t>O-81</t>
+  </si>
+  <si>
+    <t>O-82</t>
+  </si>
+  <si>
+    <t>O-83</t>
+  </si>
+  <si>
+    <t>O-84</t>
+  </si>
+  <si>
+    <t>O-85</t>
+  </si>
+  <si>
+    <t>আসলেই নষ্ট হইছে নাকি?</t>
+  </si>
+  <si>
+    <t>বাসায় দেখে নিবা</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/postelikediyennah</t>
   </si>
 </sst>
 </file>
@@ -15091,7 +15511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -15145,19 +15565,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15263,15 +15681,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2844</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1363980</xdr:colOff>
+      <xdr:row>2843</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>1516380</xdr:colOff>
       <xdr:row>2844</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15295,7 +15713,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="822960" y="520346940"/>
+          <a:off x="2186940" y="520156440"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15318,13 +15736,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>1592580</xdr:colOff>
       <xdr:row>2844</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>1744980</xdr:colOff>
       <xdr:row>2844</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -15350,7 +15768,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="982980" y="520346940"/>
+          <a:off x="2415540" y="520171680"/>
           <a:ext cx="152400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15660,10 +16078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2850"/>
+  <dimension ref="A1:E2950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2819" workbookViewId="0">
-      <selection activeCell="E2800" sqref="E2800:E2850"/>
+    <sheetView tabSelected="1" topLeftCell="A2946" workbookViewId="0">
+      <selection activeCell="E2961" sqref="E2961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -46420,7 +46838,7 @@
       <c r="A1985" s="1" t="s">
         <v>3518</v>
       </c>
-      <c r="B1985" s="24" t="s">
+      <c r="B1985" s="19" t="s">
         <v>3519</v>
       </c>
       <c r="C1985" s="1" t="s">
@@ -58542,7 +58960,7 @@
       <c r="A2701" s="1" t="s">
         <v>4743</v>
       </c>
-      <c r="B2701" s="19" t="s">
+      <c r="B2701" s="2" t="s">
         <v>4772</v>
       </c>
       <c r="C2701" s="1" t="s">
@@ -58559,7 +58977,7 @@
       <c r="A2702" s="1" t="s">
         <v>4744</v>
       </c>
-      <c r="B2702" s="19" t="s">
+      <c r="B2702" s="2" t="s">
         <v>4773</v>
       </c>
       <c r="C2702" s="1" t="s">
@@ -58576,7 +58994,7 @@
       <c r="A2703" s="1" t="s">
         <v>4745</v>
       </c>
-      <c r="B2703" s="19" t="s">
+      <c r="B2703" s="2" t="s">
         <v>4774</v>
       </c>
       <c r="C2703" s="1" t="s">
@@ -58593,7 +59011,7 @@
       <c r="A2704" s="1" t="s">
         <v>4746</v>
       </c>
-      <c r="B2704" s="19" t="s">
+      <c r="B2704" s="2" t="s">
         <v>4775</v>
       </c>
       <c r="C2704" s="1" t="s">
@@ -58610,7 +59028,7 @@
       <c r="A2705" s="1" t="s">
         <v>4747</v>
       </c>
-      <c r="B2705" s="19" t="s">
+      <c r="B2705" s="2" t="s">
         <v>4776</v>
       </c>
       <c r="C2705" s="1" t="s">
@@ -58627,7 +59045,7 @@
       <c r="A2706" s="1" t="s">
         <v>4748</v>
       </c>
-      <c r="B2706" s="19" t="s">
+      <c r="B2706" s="2" t="s">
         <v>4777</v>
       </c>
       <c r="C2706" s="1" t="s">
@@ -58644,7 +59062,7 @@
       <c r="A2707" s="1" t="s">
         <v>4749</v>
       </c>
-      <c r="B2707" s="19" t="s">
+      <c r="B2707" s="2" t="s">
         <v>4778</v>
       </c>
       <c r="C2707" s="1" t="s">
@@ -58661,7 +59079,7 @@
       <c r="A2708" s="1" t="s">
         <v>4750</v>
       </c>
-      <c r="B2708" s="19" t="s">
+      <c r="B2708" s="2" t="s">
         <v>4779</v>
       </c>
       <c r="C2708" s="1" t="s">
@@ -58678,7 +59096,7 @@
       <c r="A2709" s="1" t="s">
         <v>4751</v>
       </c>
-      <c r="B2709" s="19" t="s">
+      <c r="B2709" s="2" t="s">
         <v>4780</v>
       </c>
       <c r="C2709" s="1" t="s">
@@ -58695,7 +59113,7 @@
       <c r="A2710" s="1" t="s">
         <v>4752</v>
       </c>
-      <c r="B2710" s="19" t="s">
+      <c r="B2710" s="2" t="s">
         <v>4781</v>
       </c>
       <c r="C2710" s="1" t="s">
@@ -58712,7 +59130,7 @@
       <c r="A2711" s="1" t="s">
         <v>4753</v>
       </c>
-      <c r="B2711" s="19" t="s">
+      <c r="B2711" s="2" t="s">
         <v>4782</v>
       </c>
       <c r="C2711" s="1" t="s">
@@ -58729,7 +59147,7 @@
       <c r="A2712" s="1" t="s">
         <v>4754</v>
       </c>
-      <c r="B2712" s="19" t="s">
+      <c r="B2712" s="2" t="s">
         <v>4783</v>
       </c>
       <c r="C2712" s="1" t="s">
@@ -58746,7 +59164,7 @@
       <c r="A2713" s="1" t="s">
         <v>4755</v>
       </c>
-      <c r="B2713" s="19" t="s">
+      <c r="B2713" s="2" t="s">
         <v>4784</v>
       </c>
       <c r="C2713" s="1" t="s">
@@ -58763,7 +59181,7 @@
       <c r="A2714" s="1" t="s">
         <v>4756</v>
       </c>
-      <c r="B2714" s="19" t="s">
+      <c r="B2714" s="2" t="s">
         <v>4785</v>
       </c>
       <c r="C2714" s="1" t="s">
@@ -58780,7 +59198,7 @@
       <c r="A2715" s="1" t="s">
         <v>4757</v>
       </c>
-      <c r="B2715" s="19" t="s">
+      <c r="B2715" s="2" t="s">
         <v>4786</v>
       </c>
       <c r="C2715" s="1" t="s">
@@ -58797,7 +59215,7 @@
       <c r="A2716" s="1" t="s">
         <v>4758</v>
       </c>
-      <c r="B2716" s="19" t="s">
+      <c r="B2716" s="2" t="s">
         <v>4787</v>
       </c>
       <c r="C2716" s="1" t="s">
@@ -58814,7 +59232,7 @@
       <c r="A2717" s="1" t="s">
         <v>4759</v>
       </c>
-      <c r="B2717" s="19" t="s">
+      <c r="B2717" s="2" t="s">
         <v>4788</v>
       </c>
       <c r="C2717" s="1" t="s">
@@ -58831,7 +59249,7 @@
       <c r="A2718" s="1" t="s">
         <v>4760</v>
       </c>
-      <c r="B2718" s="19" t="s">
+      <c r="B2718" s="2" t="s">
         <v>4789</v>
       </c>
       <c r="C2718" s="1" t="s">
@@ -58848,7 +59266,7 @@
       <c r="A2719" s="1" t="s">
         <v>4761</v>
       </c>
-      <c r="B2719" s="19" t="s">
+      <c r="B2719" s="2" t="s">
         <v>4790</v>
       </c>
       <c r="C2719" s="1" t="s">
@@ -58865,7 +59283,7 @@
       <c r="A2720" s="1" t="s">
         <v>4762</v>
       </c>
-      <c r="B2720" s="19" t="s">
+      <c r="B2720" s="2" t="s">
         <v>4791</v>
       </c>
       <c r="C2720" s="1" t="s">
@@ -58882,7 +59300,7 @@
       <c r="A2721" s="1" t="s">
         <v>4763</v>
       </c>
-      <c r="B2721" s="19" t="s">
+      <c r="B2721" s="2" t="s">
         <v>4792</v>
       </c>
       <c r="C2721" s="1" t="s">
@@ -58899,7 +59317,7 @@
       <c r="A2722" s="1" t="s">
         <v>4764</v>
       </c>
-      <c r="B2722" s="19" t="s">
+      <c r="B2722" s="2" t="s">
         <v>4793</v>
       </c>
       <c r="C2722" s="1" t="s">
@@ -58916,7 +59334,7 @@
       <c r="A2723" s="1" t="s">
         <v>4765</v>
       </c>
-      <c r="B2723" s="19" t="s">
+      <c r="B2723" s="2" t="s">
         <v>4794</v>
       </c>
       <c r="C2723" s="1" t="s">
@@ -58933,7 +59351,7 @@
       <c r="A2724" s="1" t="s">
         <v>4766</v>
       </c>
-      <c r="B2724" s="19" t="s">
+      <c r="B2724" s="2" t="s">
         <v>4795</v>
       </c>
       <c r="C2724" s="1" t="s">
@@ -58950,7 +59368,7 @@
       <c r="A2725" s="1" t="s">
         <v>4767</v>
       </c>
-      <c r="B2725" s="19" t="s">
+      <c r="B2725" s="2" t="s">
         <v>4796</v>
       </c>
       <c r="C2725" s="1" t="s">
@@ -58967,7 +59385,7 @@
       <c r="A2726" s="1" t="s">
         <v>4768</v>
       </c>
-      <c r="B2726" s="19" t="s">
+      <c r="B2726" s="2" t="s">
         <v>4797</v>
       </c>
       <c r="C2726" s="1" t="s">
@@ -58984,7 +59402,7 @@
       <c r="A2727" s="1" t="s">
         <v>4769</v>
       </c>
-      <c r="B2727" s="19" t="s">
+      <c r="B2727" s="2" t="s">
         <v>4798</v>
       </c>
       <c r="C2727" s="1" t="s">
@@ -59001,7 +59419,7 @@
       <c r="A2728" s="1" t="s">
         <v>4770</v>
       </c>
-      <c r="B2728" s="20" t="s">
+      <c r="B2728" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2728" s="1" t="s">
@@ -59018,7 +59436,7 @@
       <c r="A2729" s="1" t="s">
         <v>4771</v>
       </c>
-      <c r="B2729" s="19" t="s">
+      <c r="B2729" s="2" t="s">
         <v>4800</v>
       </c>
       <c r="C2729" s="1" t="s">
@@ -59035,7 +59453,7 @@
       <c r="A2730" s="1" t="s">
         <v>4801</v>
       </c>
-      <c r="B2730" s="19" t="s">
+      <c r="B2730" s="2" t="s">
         <v>4822</v>
       </c>
       <c r="C2730" s="1" t="s">
@@ -59052,7 +59470,7 @@
       <c r="A2731" s="1" t="s">
         <v>4802</v>
       </c>
-      <c r="B2731" s="19" t="s">
+      <c r="B2731" s="2" t="s">
         <v>4823</v>
       </c>
       <c r="C2731" s="1" t="s">
@@ -59069,7 +59487,7 @@
       <c r="A2732" s="1" t="s">
         <v>4803</v>
       </c>
-      <c r="B2732" s="19" t="s">
+      <c r="B2732" s="2" t="s">
         <v>4824</v>
       </c>
       <c r="C2732" s="1" t="s">
@@ -59086,7 +59504,7 @@
       <c r="A2733" s="1" t="s">
         <v>4804</v>
       </c>
-      <c r="B2733" s="19" t="s">
+      <c r="B2733" s="2" t="s">
         <v>4825</v>
       </c>
       <c r="C2733" s="1" t="s">
@@ -59103,7 +59521,7 @@
       <c r="A2734" s="1" t="s">
         <v>4805</v>
       </c>
-      <c r="B2734" s="19" t="s">
+      <c r="B2734" s="2" t="s">
         <v>4826</v>
       </c>
       <c r="C2734" s="1" t="s">
@@ -59120,7 +59538,7 @@
       <c r="A2735" s="1" t="s">
         <v>4806</v>
       </c>
-      <c r="B2735" s="19" t="s">
+      <c r="B2735" s="2" t="s">
         <v>4827</v>
       </c>
       <c r="C2735" s="1" t="s">
@@ -59137,7 +59555,7 @@
       <c r="A2736" s="1" t="s">
         <v>4807</v>
       </c>
-      <c r="B2736" s="19" t="s">
+      <c r="B2736" s="2" t="s">
         <v>4828</v>
       </c>
       <c r="C2736" s="1" t="s">
@@ -59154,7 +59572,7 @@
       <c r="A2737" s="1" t="s">
         <v>4808</v>
       </c>
-      <c r="B2737" s="20" t="s">
+      <c r="B2737" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2737" s="1" t="s">
@@ -59171,7 +59589,7 @@
       <c r="A2738" s="1" t="s">
         <v>4809</v>
       </c>
-      <c r="B2738" s="19" t="s">
+      <c r="B2738" s="2" t="s">
         <v>4829</v>
       </c>
       <c r="C2738" s="1" t="s">
@@ -59188,7 +59606,7 @@
       <c r="A2739" s="1" t="s">
         <v>4810</v>
       </c>
-      <c r="B2739" s="19" t="s">
+      <c r="B2739" s="2" t="s">
         <v>4830</v>
       </c>
       <c r="C2739" s="1" t="s">
@@ -59205,7 +59623,7 @@
       <c r="A2740" s="1" t="s">
         <v>4811</v>
       </c>
-      <c r="B2740" s="19" t="s">
+      <c r="B2740" s="2" t="s">
         <v>4831</v>
       </c>
       <c r="C2740" s="1" t="s">
@@ -59222,7 +59640,7 @@
       <c r="A2741" s="1" t="s">
         <v>4812</v>
       </c>
-      <c r="B2741" s="19" t="s">
+      <c r="B2741" s="2" t="s">
         <v>4832</v>
       </c>
       <c r="C2741" s="1" t="s">
@@ -59239,7 +59657,7 @@
       <c r="A2742" s="1" t="s">
         <v>4813</v>
       </c>
-      <c r="B2742" s="19" t="s">
+      <c r="B2742" s="2" t="s">
         <v>4833</v>
       </c>
       <c r="C2742" s="1" t="s">
@@ -59256,7 +59674,7 @@
       <c r="A2743" s="1" t="s">
         <v>4814</v>
       </c>
-      <c r="B2743" s="19" t="s">
+      <c r="B2743" s="2" t="s">
         <v>4834</v>
       </c>
       <c r="C2743" s="1" t="s">
@@ -59273,7 +59691,7 @@
       <c r="A2744" s="1" t="s">
         <v>4815</v>
       </c>
-      <c r="B2744" s="19" t="s">
+      <c r="B2744" s="2" t="s">
         <v>4837</v>
       </c>
       <c r="C2744" s="1" t="s">
@@ -59290,7 +59708,7 @@
       <c r="A2745" s="1" t="s">
         <v>4816</v>
       </c>
-      <c r="B2745" s="20" t="s">
+      <c r="B2745" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2745" s="1" t="s">
@@ -59307,7 +59725,7 @@
       <c r="A2746" s="1" t="s">
         <v>4817</v>
       </c>
-      <c r="B2746" s="19" t="s">
+      <c r="B2746" s="2" t="s">
         <v>4838</v>
       </c>
       <c r="C2746" s="1" t="s">
@@ -59324,7 +59742,7 @@
       <c r="A2747" s="1" t="s">
         <v>4818</v>
       </c>
-      <c r="B2747" s="19" t="s">
+      <c r="B2747" s="2" t="s">
         <v>4839</v>
       </c>
       <c r="C2747" s="1" t="s">
@@ -59341,7 +59759,7 @@
       <c r="A2748" s="1" t="s">
         <v>4819</v>
       </c>
-      <c r="B2748" s="19" t="s">
+      <c r="B2748" s="2" t="s">
         <v>4840</v>
       </c>
       <c r="C2748" s="1" t="s">
@@ -59358,7 +59776,7 @@
       <c r="A2749" s="1" t="s">
         <v>4820</v>
       </c>
-      <c r="B2749" s="19" t="s">
+      <c r="B2749" s="2" t="s">
         <v>4841</v>
       </c>
       <c r="C2749" s="1" t="s">
@@ -59375,7 +59793,7 @@
       <c r="A2750" s="1" t="s">
         <v>4821</v>
       </c>
-      <c r="B2750" s="20" t="s">
+      <c r="B2750" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2750" s="1" t="s">
@@ -59392,7 +59810,7 @@
       <c r="A2751" s="1" t="s">
         <v>4842</v>
       </c>
-      <c r="B2751" s="20" t="s">
+      <c r="B2751" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2751" s="1" t="s">
@@ -59409,7 +59827,7 @@
       <c r="A2752" s="1" t="s">
         <v>4843</v>
       </c>
-      <c r="B2752" s="21" t="s">
+      <c r="B2752" s="20" t="s">
         <v>4862</v>
       </c>
       <c r="C2752" s="1" t="s">
@@ -59426,7 +59844,7 @@
       <c r="A2753" s="1" t="s">
         <v>4844</v>
       </c>
-      <c r="B2753" s="20" t="s">
+      <c r="B2753" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2753" s="1" t="s">
@@ -59443,7 +59861,7 @@
       <c r="A2754" s="1" t="s">
         <v>4845</v>
       </c>
-      <c r="B2754" s="19" t="s">
+      <c r="B2754" s="2" t="s">
         <v>4863</v>
       </c>
       <c r="C2754" s="1" t="s">
@@ -59460,7 +59878,7 @@
       <c r="A2755" s="1" t="s">
         <v>4846</v>
       </c>
-      <c r="B2755" s="20" t="s">
+      <c r="B2755" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2755" s="1" t="s">
@@ -59477,7 +59895,7 @@
       <c r="A2756" s="1" t="s">
         <v>4847</v>
       </c>
-      <c r="B2756" s="20" t="s">
+      <c r="B2756" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2756" s="1" t="s">
@@ -59494,7 +59912,7 @@
       <c r="A2757" s="1" t="s">
         <v>4848</v>
       </c>
-      <c r="B2757" s="19" t="s">
+      <c r="B2757" s="2" t="s">
         <v>4864</v>
       </c>
       <c r="C2757" s="1" t="s">
@@ -59511,7 +59929,7 @@
       <c r="A2758" s="1" t="s">
         <v>4849</v>
       </c>
-      <c r="B2758" s="19" t="s">
+      <c r="B2758" s="2" t="s">
         <v>4865</v>
       </c>
       <c r="C2758" s="1" t="s">
@@ -59528,7 +59946,7 @@
       <c r="A2759" s="1" t="s">
         <v>4850</v>
       </c>
-      <c r="B2759" s="20" t="s">
+      <c r="B2759" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2759" s="1" t="s">
@@ -59545,7 +59963,7 @@
       <c r="A2760" s="1" t="s">
         <v>4851</v>
       </c>
-      <c r="B2760" s="19" t="s">
+      <c r="B2760" s="2" t="s">
         <v>4866</v>
       </c>
       <c r="C2760" s="1" t="s">
@@ -59562,7 +59980,7 @@
       <c r="A2761" s="1" t="s">
         <v>4852</v>
       </c>
-      <c r="B2761" s="19" t="s">
+      <c r="B2761" s="2" t="s">
         <v>4867</v>
       </c>
       <c r="C2761" s="1" t="s">
@@ -59579,7 +59997,7 @@
       <c r="A2762" s="1" t="s">
         <v>4853</v>
       </c>
-      <c r="B2762" s="19" t="s">
+      <c r="B2762" s="2" t="s">
         <v>4868</v>
       </c>
       <c r="C2762" s="1" t="s">
@@ -59596,7 +60014,7 @@
       <c r="A2763" s="1" t="s">
         <v>4854</v>
       </c>
-      <c r="B2763" s="19" t="s">
+      <c r="B2763" s="2" t="s">
         <v>4869</v>
       </c>
       <c r="C2763" s="1" t="s">
@@ -59613,7 +60031,7 @@
       <c r="A2764" s="1" t="s">
         <v>4855</v>
       </c>
-      <c r="B2764" s="20" t="s">
+      <c r="B2764" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2764" s="1" t="s">
@@ -59630,7 +60048,7 @@
       <c r="A2765" s="1" t="s">
         <v>4856</v>
       </c>
-      <c r="B2765" s="20" t="s">
+      <c r="B2765" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2765" s="1" t="s">
@@ -59647,7 +60065,7 @@
       <c r="A2766" s="1" t="s">
         <v>4857</v>
       </c>
-      <c r="B2766" s="20" t="s">
+      <c r="B2766" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2766" s="1" t="s">
@@ -59664,7 +60082,7 @@
       <c r="A2767" s="1" t="s">
         <v>4858</v>
       </c>
-      <c r="B2767" s="20" t="s">
+      <c r="B2767" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2767" s="1" t="s">
@@ -59681,7 +60099,7 @@
       <c r="A2768" s="1" t="s">
         <v>4859</v>
       </c>
-      <c r="B2768" s="19" t="s">
+      <c r="B2768" s="2" t="s">
         <v>4870</v>
       </c>
       <c r="C2768" s="1" t="s">
@@ -59698,7 +60116,7 @@
       <c r="A2769" s="1" t="s">
         <v>4860</v>
       </c>
-      <c r="B2769" s="19" t="s">
+      <c r="B2769" s="2" t="s">
         <v>4871</v>
       </c>
       <c r="C2769" s="1" t="s">
@@ -59715,7 +60133,7 @@
       <c r="A2770" s="1" t="s">
         <v>4861</v>
       </c>
-      <c r="B2770" s="19" t="s">
+      <c r="B2770" s="2" t="s">
         <v>4872</v>
       </c>
       <c r="C2770" s="1" t="s">
@@ -59732,7 +60150,7 @@
       <c r="A2771" s="1" t="s">
         <v>4873</v>
       </c>
-      <c r="B2771" s="19" t="s">
+      <c r="B2771" s="2" t="s">
         <v>4903</v>
       </c>
       <c r="C2771" s="1" t="s">
@@ -59749,7 +60167,7 @@
       <c r="A2772" s="1" t="s">
         <v>4874</v>
       </c>
-      <c r="B2772" s="20" t="s">
+      <c r="B2772" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2772" s="1" t="s">
@@ -59766,7 +60184,7 @@
       <c r="A2773" s="1" t="s">
         <v>4875</v>
       </c>
-      <c r="B2773" s="19" t="s">
+      <c r="B2773" s="2" t="s">
         <v>4904</v>
       </c>
       <c r="C2773" s="1" t="s">
@@ -59783,7 +60201,7 @@
       <c r="A2774" s="1" t="s">
         <v>4876</v>
       </c>
-      <c r="B2774" s="20" t="s">
+      <c r="B2774" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2774" s="1" t="s">
@@ -59800,7 +60218,7 @@
       <c r="A2775" s="1" t="s">
         <v>4877</v>
       </c>
-      <c r="B2775" s="20" t="s">
+      <c r="B2775" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2775" s="1" t="s">
@@ -59817,7 +60235,7 @@
       <c r="A2776" s="1" t="s">
         <v>4878</v>
       </c>
-      <c r="B2776" s="19" t="s">
+      <c r="B2776" s="2" t="s">
         <v>4905</v>
       </c>
       <c r="C2776" s="1" t="s">
@@ -59834,7 +60252,7 @@
       <c r="A2777" s="1" t="s">
         <v>4879</v>
       </c>
-      <c r="B2777" s="19" t="s">
+      <c r="B2777" s="2" t="s">
         <v>4906</v>
       </c>
       <c r="C2777" s="1" t="s">
@@ -59851,7 +60269,7 @@
       <c r="A2778" s="1" t="s">
         <v>4880</v>
       </c>
-      <c r="B2778" s="20" t="s">
+      <c r="B2778" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2778" s="1" t="s">
@@ -59868,7 +60286,7 @@
       <c r="A2779" s="1" t="s">
         <v>4881</v>
       </c>
-      <c r="B2779" s="19" t="s">
+      <c r="B2779" s="2" t="s">
         <v>4907</v>
       </c>
       <c r="C2779" s="1" t="s">
@@ -59885,7 +60303,7 @@
       <c r="A2780" s="1" t="s">
         <v>4882</v>
       </c>
-      <c r="B2780" s="20" t="s">
+      <c r="B2780" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2780" s="1" t="s">
@@ -59902,7 +60320,7 @@
       <c r="A2781" s="1" t="s">
         <v>4883</v>
       </c>
-      <c r="B2781" s="19" t="s">
+      <c r="B2781" s="2" t="s">
         <v>4908</v>
       </c>
       <c r="C2781" s="1" t="s">
@@ -59919,7 +60337,7 @@
       <c r="A2782" s="1" t="s">
         <v>4884</v>
       </c>
-      <c r="B2782" s="19" t="s">
+      <c r="B2782" s="2" t="s">
         <v>4909</v>
       </c>
       <c r="C2782" s="1" t="s">
@@ -59936,7 +60354,7 @@
       <c r="A2783" s="1" t="s">
         <v>4885</v>
       </c>
-      <c r="B2783" s="20" t="s">
+      <c r="B2783" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2783" s="1" t="s">
@@ -59953,7 +60371,7 @@
       <c r="A2784" s="1" t="s">
         <v>4886</v>
       </c>
-      <c r="B2784" s="20" t="s">
+      <c r="B2784" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2784" s="1" t="s">
@@ -59970,7 +60388,7 @@
       <c r="A2785" s="1" t="s">
         <v>4887</v>
       </c>
-      <c r="B2785" s="20" t="s">
+      <c r="B2785" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2785" s="1" t="s">
@@ -59987,7 +60405,7 @@
       <c r="A2786" s="1" t="s">
         <v>4888</v>
       </c>
-      <c r="B2786" s="20" t="s">
+      <c r="B2786" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2786" s="1" t="s">
@@ -60004,7 +60422,7 @@
       <c r="A2787" s="1" t="s">
         <v>4889</v>
       </c>
-      <c r="B2787" s="20" t="s">
+      <c r="B2787" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2787" s="1" t="s">
@@ -60021,7 +60439,7 @@
       <c r="A2788" s="1" t="s">
         <v>4890</v>
       </c>
-      <c r="B2788" s="20" t="s">
+      <c r="B2788" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2788" s="1" t="s">
@@ -60038,7 +60456,7 @@
       <c r="A2789" s="1" t="s">
         <v>4891</v>
       </c>
-      <c r="B2789" s="20" t="s">
+      <c r="B2789" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2789" s="1" t="s">
@@ -60055,7 +60473,7 @@
       <c r="A2790" s="1" t="s">
         <v>4892</v>
       </c>
-      <c r="B2790" s="20" t="s">
+      <c r="B2790" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2790" s="1" t="s">
@@ -60072,7 +60490,7 @@
       <c r="A2791" s="1" t="s">
         <v>4893</v>
       </c>
-      <c r="B2791" s="20" t="s">
+      <c r="B2791" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2791" s="1" t="s">
@@ -60089,7 +60507,7 @@
       <c r="A2792" s="1" t="s">
         <v>4894</v>
       </c>
-      <c r="B2792" s="20" t="s">
+      <c r="B2792" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2792" s="1" t="s">
@@ -60106,7 +60524,7 @@
       <c r="A2793" s="1" t="s">
         <v>4895</v>
       </c>
-      <c r="B2793" s="20" t="s">
+      <c r="B2793" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2793" s="1" t="s">
@@ -60123,7 +60541,7 @@
       <c r="A2794" s="1" t="s">
         <v>4896</v>
       </c>
-      <c r="B2794" s="20" t="s">
+      <c r="B2794" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2794" s="1" t="s">
@@ -60140,7 +60558,7 @@
       <c r="A2795" s="1" t="s">
         <v>4897</v>
       </c>
-      <c r="B2795" s="19" t="s">
+      <c r="B2795" s="2" t="s">
         <v>4910</v>
       </c>
       <c r="C2795" s="1" t="s">
@@ -60157,7 +60575,7 @@
       <c r="A2796" s="1" t="s">
         <v>4898</v>
       </c>
-      <c r="B2796" s="19" t="s">
+      <c r="B2796" s="2" t="s">
         <v>4911</v>
       </c>
       <c r="C2796" s="1" t="s">
@@ -60174,7 +60592,7 @@
       <c r="A2797" s="1" t="s">
         <v>4899</v>
       </c>
-      <c r="B2797" s="20" t="s">
+      <c r="B2797" s="2" t="s">
         <v>4912</v>
       </c>
       <c r="C2797" s="1" t="s">
@@ -60191,7 +60609,7 @@
       <c r="A2798" s="1" t="s">
         <v>4900</v>
       </c>
-      <c r="B2798" s="19" t="s">
+      <c r="B2798" s="2" t="s">
         <v>4913</v>
       </c>
       <c r="C2798" s="1" t="s">
@@ -60208,7 +60626,7 @@
       <c r="A2799" s="1" t="s">
         <v>4901</v>
       </c>
-      <c r="B2799" s="20" t="s">
+      <c r="B2799" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2799" s="1" t="s">
@@ -60225,7 +60643,7 @@
       <c r="A2800" s="1" t="s">
         <v>4902</v>
       </c>
-      <c r="B2800" s="20" t="s">
+      <c r="B2800" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2800" s="1" t="s">
@@ -60242,7 +60660,7 @@
       <c r="A2801" s="1" t="s">
         <v>4914</v>
       </c>
-      <c r="B2801" s="20" t="s">
+      <c r="B2801" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2801" s="1" t="s">
@@ -60259,7 +60677,7 @@
       <c r="A2802" s="1" t="s">
         <v>4915</v>
       </c>
-      <c r="B2802" s="20" t="s">
+      <c r="B2802" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2802" s="1" t="s">
@@ -60276,7 +60694,7 @@
       <c r="A2803" s="1" t="s">
         <v>4916</v>
       </c>
-      <c r="B2803" s="19" t="s">
+      <c r="B2803" s="2" t="s">
         <v>4943</v>
       </c>
       <c r="C2803" s="1" t="s">
@@ -60293,7 +60711,7 @@
       <c r="A2804" s="1" t="s">
         <v>4917</v>
       </c>
-      <c r="B2804" s="20" t="s">
+      <c r="B2804" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2804" s="1" t="s">
@@ -60310,7 +60728,7 @@
       <c r="A2805" s="1" t="s">
         <v>4918</v>
       </c>
-      <c r="B2805" s="20" t="s">
+      <c r="B2805" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2805" s="1" t="s">
@@ -60327,7 +60745,7 @@
       <c r="A2806" s="1" t="s">
         <v>4919</v>
       </c>
-      <c r="B2806" s="20" t="s">
+      <c r="B2806" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2806" s="1" t="s">
@@ -60344,7 +60762,7 @@
       <c r="A2807" s="1" t="s">
         <v>4920</v>
       </c>
-      <c r="B2807" s="20" t="s">
+      <c r="B2807" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2807" s="1" t="s">
@@ -60361,7 +60779,7 @@
       <c r="A2808" s="1" t="s">
         <v>4921</v>
       </c>
-      <c r="B2808" s="19" t="s">
+      <c r="B2808" s="2" t="s">
         <v>4944</v>
       </c>
       <c r="C2808" s="1" t="s">
@@ -60378,7 +60796,7 @@
       <c r="A2809" s="1" t="s">
         <v>4922</v>
       </c>
-      <c r="B2809" s="20" t="s">
+      <c r="B2809" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2809" s="1" t="s">
@@ -60395,7 +60813,7 @@
       <c r="A2810" s="1" t="s">
         <v>4923</v>
       </c>
-      <c r="B2810" s="20" t="s">
+      <c r="B2810" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2810" s="1" t="s">
@@ -60412,7 +60830,7 @@
       <c r="A2811" s="1" t="s">
         <v>4924</v>
       </c>
-      <c r="B2811" s="20" t="s">
+      <c r="B2811" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2811" s="1" t="s">
@@ -60429,7 +60847,7 @@
       <c r="A2812" s="1" t="s">
         <v>4925</v>
       </c>
-      <c r="B2812" s="19" t="s">
+      <c r="B2812" s="2" t="s">
         <v>4945</v>
       </c>
       <c r="C2812" s="1" t="s">
@@ -60446,7 +60864,7 @@
       <c r="A2813" s="1" t="s">
         <v>4926</v>
       </c>
-      <c r="B2813" s="20" t="s">
+      <c r="B2813" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2813" s="1" t="s">
@@ -60463,7 +60881,7 @@
       <c r="A2814" s="1" t="s">
         <v>4927</v>
       </c>
-      <c r="B2814" s="20" t="s">
+      <c r="B2814" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2814" s="1" t="s">
@@ -60480,7 +60898,7 @@
       <c r="A2815" s="1" t="s">
         <v>4928</v>
       </c>
-      <c r="B2815" s="20" t="s">
+      <c r="B2815" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2815" s="1" t="s">
@@ -60497,7 +60915,7 @@
       <c r="A2816" s="1" t="s">
         <v>4929</v>
       </c>
-      <c r="B2816" s="20" t="s">
+      <c r="B2816" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2816" s="1" t="s">
@@ -60514,7 +60932,7 @@
       <c r="A2817" s="1" t="s">
         <v>4930</v>
       </c>
-      <c r="B2817" s="19" t="s">
+      <c r="B2817" s="2" t="s">
         <v>4946</v>
       </c>
       <c r="C2817" s="1" t="s">
@@ -60531,7 +60949,7 @@
       <c r="A2818" s="1" t="s">
         <v>4931</v>
       </c>
-      <c r="B2818" s="20" t="s">
+      <c r="B2818" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2818" s="1" t="s">
@@ -60548,7 +60966,7 @@
       <c r="A2819" s="1" t="s">
         <v>4932</v>
       </c>
-      <c r="B2819" s="20" t="s">
+      <c r="B2819" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2819" s="1" t="s">
@@ -60565,7 +60983,7 @@
       <c r="A2820" s="1" t="s">
         <v>4933</v>
       </c>
-      <c r="B2820" s="20" t="s">
+      <c r="B2820" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2820" s="1" t="s">
@@ -60582,7 +61000,7 @@
       <c r="A2821" s="1" t="s">
         <v>4934</v>
       </c>
-      <c r="B2821" s="20" t="s">
+      <c r="B2821" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2821" s="1" t="s">
@@ -60599,7 +61017,7 @@
       <c r="A2822" s="1" t="s">
         <v>4935</v>
       </c>
-      <c r="B2822" s="20" t="s">
+      <c r="B2822" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2822" s="1" t="s">
@@ -60616,7 +61034,7 @@
       <c r="A2823" s="1" t="s">
         <v>4936</v>
       </c>
-      <c r="B2823" s="22" t="s">
+      <c r="B2823" s="21" t="s">
         <v>4947</v>
       </c>
       <c r="C2823" s="1" t="s">
@@ -60633,7 +61051,7 @@
       <c r="A2824" s="1" t="s">
         <v>4937</v>
       </c>
-      <c r="B2824" s="23" t="s">
+      <c r="B2824" s="22" t="s">
         <v>4948</v>
       </c>
       <c r="C2824" s="1" t="s">
@@ -60650,7 +61068,7 @@
       <c r="A2825" s="1" t="s">
         <v>4938</v>
       </c>
-      <c r="B2825" s="23" t="s">
+      <c r="B2825" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C2825" s="1" t="s">
@@ -60667,7 +61085,7 @@
       <c r="A2826" s="1" t="s">
         <v>4939</v>
       </c>
-      <c r="B2826" s="19" t="s">
+      <c r="B2826" s="2" t="s">
         <v>4949</v>
       </c>
       <c r="C2826" s="1" t="s">
@@ -60684,7 +61102,7 @@
       <c r="A2827" s="1" t="s">
         <v>4940</v>
       </c>
-      <c r="B2827" s="17" t="s">
+      <c r="B2827" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2827" s="1" t="s">
@@ -60701,7 +61119,7 @@
       <c r="A2828" s="1" t="s">
         <v>4941</v>
       </c>
-      <c r="B2828" s="19" t="s">
+      <c r="B2828" s="2" t="s">
         <v>4396</v>
       </c>
       <c r="C2828" s="1" t="s">
@@ -60718,7 +61136,7 @@
       <c r="A2829" s="1" t="s">
         <v>4942</v>
       </c>
-      <c r="B2829" s="17" t="s">
+      <c r="B2829" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2829" s="1" t="s">
@@ -60735,7 +61153,7 @@
       <c r="A2830" s="1" t="s">
         <v>4950</v>
       </c>
-      <c r="B2830" s="17" t="s">
+      <c r="B2830" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2830" s="1" t="s">
@@ -60752,7 +61170,7 @@
       <c r="A2831" s="1" t="s">
         <v>4951</v>
       </c>
-      <c r="B2831" s="17" t="s">
+      <c r="B2831" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2831" s="1" t="s">
@@ -60769,7 +61187,7 @@
       <c r="A2832" s="1" t="s">
         <v>4952</v>
       </c>
-      <c r="B2832" s="17" t="s">
+      <c r="B2832" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2832" s="1" t="s">
@@ -60786,7 +61204,7 @@
       <c r="A2833" s="1" t="s">
         <v>4953</v>
       </c>
-      <c r="B2833" s="19" t="s">
+      <c r="B2833" s="2" t="s">
         <v>4959</v>
       </c>
       <c r="C2833" s="1" t="s">
@@ -60803,7 +61221,7 @@
       <c r="A2834" s="1" t="s">
         <v>4954</v>
       </c>
-      <c r="B2834" s="17" t="s">
+      <c r="B2834" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2834" s="1" t="s">
@@ -60820,7 +61238,7 @@
       <c r="A2835" s="1" t="s">
         <v>4955</v>
       </c>
-      <c r="B2835" s="17" t="s">
+      <c r="B2835" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2835" s="1" t="s">
@@ -60837,7 +61255,7 @@
       <c r="A2836" s="1" t="s">
         <v>4956</v>
       </c>
-      <c r="B2836" s="17" t="s">
+      <c r="B2836" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2836" s="1" t="s">
@@ -60854,7 +61272,7 @@
       <c r="A2837" s="1" t="s">
         <v>4957</v>
       </c>
-      <c r="B2837" s="17" t="s">
+      <c r="B2837" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2837" s="1" t="s">
@@ -60871,7 +61289,7 @@
       <c r="A2838" s="1" t="s">
         <v>4958</v>
       </c>
-      <c r="B2838" s="17" t="s">
+      <c r="B2838" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2838" s="1" t="s">
@@ -60888,7 +61306,7 @@
       <c r="A2839" s="1" t="s">
         <v>4960</v>
       </c>
-      <c r="B2839" s="17" t="s">
+      <c r="B2839" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2839" s="1" t="s">
@@ -60905,7 +61323,7 @@
       <c r="A2840" s="1" t="s">
         <v>4961</v>
       </c>
-      <c r="B2840" s="17" t="s">
+      <c r="B2840" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2840" s="1" t="s">
@@ -60922,7 +61340,7 @@
       <c r="A2841" s="1" t="s">
         <v>4962</v>
       </c>
-      <c r="B2841" s="17" t="s">
+      <c r="B2841" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2841" s="1" t="s">
@@ -60939,7 +61357,7 @@
       <c r="A2842" s="1" t="s">
         <v>4963</v>
       </c>
-      <c r="B2842" s="17" t="s">
+      <c r="B2842" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2842" s="1" t="s">
@@ -60956,7 +61374,7 @@
       <c r="A2843" s="1" t="s">
         <v>4964</v>
       </c>
-      <c r="B2843" s="17" t="s">
+      <c r="B2843" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2843" s="1" t="s">
@@ -60973,7 +61391,7 @@
       <c r="A2844" s="1" t="s">
         <v>4965</v>
       </c>
-      <c r="B2844" s="17" t="s">
+      <c r="B2844" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2844" s="1" t="s">
@@ -60990,7 +61408,7 @@
       <c r="A2845" s="1" t="s">
         <v>4966</v>
       </c>
-      <c r="B2845" s="19"/>
+      <c r="B2845" s="2"/>
       <c r="C2845" s="1" t="s">
         <v>7</v>
       </c>
@@ -61005,7 +61423,7 @@
       <c r="A2846" s="1" t="s">
         <v>4967</v>
       </c>
-      <c r="B2846" s="17" t="s">
+      <c r="B2846" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2846" s="1" t="s">
@@ -61022,7 +61440,7 @@
       <c r="A2847" s="1" t="s">
         <v>4968</v>
       </c>
-      <c r="B2847" s="19" t="s">
+      <c r="B2847" s="2" t="s">
         <v>4972</v>
       </c>
       <c r="C2847" s="1" t="s">
@@ -61039,7 +61457,7 @@
       <c r="A2848" s="1" t="s">
         <v>4969</v>
       </c>
-      <c r="B2848" s="17" t="s">
+      <c r="B2848" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2848" s="1" t="s">
@@ -61056,7 +61474,7 @@
       <c r="A2849" s="1" t="s">
         <v>4970</v>
       </c>
-      <c r="B2849" s="17" t="s">
+      <c r="B2849" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2849" s="1" t="s">
@@ -61073,7 +61491,7 @@
       <c r="A2850" s="1" t="s">
         <v>4971</v>
       </c>
-      <c r="B2850" s="17" t="s">
+      <c r="B2850" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2850" s="1" t="s">
@@ -61084,6 +61502,1642 @@
       </c>
       <c r="E2850" s="1" t="s">
         <v>4836</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:5">
+      <c r="A2851" s="1" t="s">
+        <v>4974</v>
+      </c>
+      <c r="B2851" s="2" t="s">
+        <v>4973</v>
+      </c>
+      <c r="C2851" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2851" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2851" s="1"/>
+    </row>
+    <row r="2852" spans="1:5">
+      <c r="A2852" s="1" t="s">
+        <v>4975</v>
+      </c>
+      <c r="B2852" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2852" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2852" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2852" s="1"/>
+    </row>
+    <row r="2853" spans="1:5">
+      <c r="A2853" s="1" t="s">
+        <v>4976</v>
+      </c>
+      <c r="B2853" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2853" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2853" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2853" s="1"/>
+    </row>
+    <row r="2854" spans="1:5">
+      <c r="A2854" s="1" t="s">
+        <v>4977</v>
+      </c>
+      <c r="B2854" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2854" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2854" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2854" s="1"/>
+    </row>
+    <row r="2855" spans="1:5">
+      <c r="A2855" s="1" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B2855" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2855" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2855" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2855" s="1"/>
+    </row>
+    <row r="2856" spans="1:5">
+      <c r="A2856" s="1" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B2856" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2856" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2856" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2856" s="1"/>
+    </row>
+    <row r="2857" spans="1:5">
+      <c r="A2857" s="1" t="s">
+        <v>4980</v>
+      </c>
+      <c r="B2857" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2857" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2857" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2857" s="1"/>
+    </row>
+    <row r="2858" spans="1:5">
+      <c r="A2858" s="1" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B2858" s="2" t="s">
+        <v>4989</v>
+      </c>
+      <c r="C2858" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2858" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2858" s="1"/>
+    </row>
+    <row r="2859" spans="1:5">
+      <c r="A2859" s="1" t="s">
+        <v>4982</v>
+      </c>
+      <c r="B2859" s="1" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C2859" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2859" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2859" s="1"/>
+    </row>
+    <row r="2860" spans="1:5">
+      <c r="A2860" s="1" t="s">
+        <v>4983</v>
+      </c>
+      <c r="B2860" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2860" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2860" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2860" s="1"/>
+    </row>
+    <row r="2861" spans="1:5">
+      <c r="A2861" s="1" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B2861" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2861" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2861" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2861" s="1"/>
+    </row>
+    <row r="2862" spans="1:5">
+      <c r="A2862" s="1" t="s">
+        <v>4985</v>
+      </c>
+      <c r="B2862" s="2" t="s">
+        <v>4990</v>
+      </c>
+      <c r="C2862" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2862" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2862" s="1"/>
+    </row>
+    <row r="2863" spans="1:5">
+      <c r="A2863" s="1" t="s">
+        <v>4986</v>
+      </c>
+      <c r="B2863" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2863" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2863" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2863" s="1"/>
+    </row>
+    <row r="2864" spans="1:5">
+      <c r="A2864" s="1" t="s">
+        <v>4987</v>
+      </c>
+      <c r="B2864" s="1" t="s">
+        <v>4991</v>
+      </c>
+      <c r="C2864" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2864" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2864" s="1"/>
+    </row>
+    <row r="2865" spans="1:5">
+      <c r="A2865" s="1" t="s">
+        <v>4988</v>
+      </c>
+      <c r="B2865" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2865" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2865" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2865" s="1"/>
+    </row>
+    <row r="2866" spans="1:5">
+      <c r="A2866" s="1" t="s">
+        <v>4992</v>
+      </c>
+      <c r="B2866" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2866" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2866" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2866" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:5">
+      <c r="A2867" s="1" t="s">
+        <v>4994</v>
+      </c>
+      <c r="B2867" s="2" t="s">
+        <v>4998</v>
+      </c>
+      <c r="C2867" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2867" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2867" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:5">
+      <c r="A2868" s="1" t="s">
+        <v>4995</v>
+      </c>
+      <c r="B2868" s="2" t="s">
+        <v>4997</v>
+      </c>
+      <c r="C2868" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2868" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2868" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:5">
+      <c r="A2869" s="1" t="s">
+        <v>4996</v>
+      </c>
+      <c r="B2869" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2869" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2869" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2869" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:5">
+      <c r="A2870" s="1" t="s">
+        <v>4999</v>
+      </c>
+      <c r="B2870" s="2" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C2870" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2870" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2870" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:5">
+      <c r="A2871" s="1" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B2871" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2871" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2871" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2871" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:5">
+      <c r="A2872" s="1" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B2872" s="2" t="s">
+        <v>5007</v>
+      </c>
+      <c r="C2872" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2872" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2872" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:5">
+      <c r="A2873" s="1" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B2873" s="2" t="s">
+        <v>5008</v>
+      </c>
+      <c r="C2873" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2873" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2873" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:5">
+      <c r="A2874" s="1" t="s">
+        <v>5003</v>
+      </c>
+      <c r="B2874" s="2" t="s">
+        <v>5009</v>
+      </c>
+      <c r="C2874" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2874" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2874" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:5">
+      <c r="A2875" s="1" t="s">
+        <v>5004</v>
+      </c>
+      <c r="B2875" s="2" t="s">
+        <v>5010</v>
+      </c>
+      <c r="C2875" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2875" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2875" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:5">
+      <c r="A2876" s="1" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B2876" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2876" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2876" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2876" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:5">
+      <c r="A2877" s="1" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B2877" s="2" t="s">
+        <v>5011</v>
+      </c>
+      <c r="C2877" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2877" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2877" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:5">
+      <c r="A2878" s="1" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B2878" s="2" t="s">
+        <v>5035</v>
+      </c>
+      <c r="C2878" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2878" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2878" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:5">
+      <c r="A2879" s="1" t="s">
+        <v>5014</v>
+      </c>
+      <c r="B2879" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2879" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2879" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2879" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:5">
+      <c r="A2880" s="1" t="s">
+        <v>5015</v>
+      </c>
+      <c r="B2880" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2880" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2880" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2880" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:5">
+      <c r="A2881" s="1" t="s">
+        <v>5016</v>
+      </c>
+      <c r="B2881" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2881" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2881" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2881" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:5">
+      <c r="A2882" s="1" t="s">
+        <v>5017</v>
+      </c>
+      <c r="B2882" s="2" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C2882" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2882" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2882" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:5">
+      <c r="A2883" s="1" t="s">
+        <v>5018</v>
+      </c>
+      <c r="B2883" s="2" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C2883" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2883" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2883" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:5">
+      <c r="A2884" s="1" t="s">
+        <v>5019</v>
+      </c>
+      <c r="B2884" s="2" t="s">
+        <v>5037</v>
+      </c>
+      <c r="C2884" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2884" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2884" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:5">
+      <c r="A2885" s="1" t="s">
+        <v>5020</v>
+      </c>
+      <c r="B2885" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2885" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2885" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2885" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:5">
+      <c r="A2886" s="1" t="s">
+        <v>5021</v>
+      </c>
+      <c r="B2886" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2886" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2886" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2886" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:5">
+      <c r="A2887" s="1" t="s">
+        <v>5022</v>
+      </c>
+      <c r="B2887" s="2" t="s">
+        <v>5038</v>
+      </c>
+      <c r="C2887" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2887" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2887" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:5">
+      <c r="A2888" s="1" t="s">
+        <v>5023</v>
+      </c>
+      <c r="B2888" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2888" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2888" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2888" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:5">
+      <c r="A2889" s="1" t="s">
+        <v>5024</v>
+      </c>
+      <c r="B2889" s="2" t="s">
+        <v>5039</v>
+      </c>
+      <c r="C2889" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2889" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2889" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:5">
+      <c r="A2890" s="1" t="s">
+        <v>5025</v>
+      </c>
+      <c r="B2890" s="2" t="s">
+        <v>5040</v>
+      </c>
+      <c r="C2890" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2890" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2890" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:5">
+      <c r="A2891" s="1" t="s">
+        <v>5026</v>
+      </c>
+      <c r="B2891" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2891" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2891" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2891" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:5">
+      <c r="A2892" s="1" t="s">
+        <v>5027</v>
+      </c>
+      <c r="B2892" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2892" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2892" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2892" s="1" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:5">
+      <c r="A2893" s="1" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B2893" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2893" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2893" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2893" s="1"/>
+    </row>
+    <row r="2894" spans="1:5">
+      <c r="A2894" s="1" t="s">
+        <v>5029</v>
+      </c>
+      <c r="B2894" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2894" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2894" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2894" s="1"/>
+    </row>
+    <row r="2895" spans="1:5">
+      <c r="A2895" s="1" t="s">
+        <v>5030</v>
+      </c>
+      <c r="B2895" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2895" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2895" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2895" s="1"/>
+    </row>
+    <row r="2896" spans="1:5">
+      <c r="A2896" s="1" t="s">
+        <v>5031</v>
+      </c>
+      <c r="B2896" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2896" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2896" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2896" s="1"/>
+    </row>
+    <row r="2897" spans="1:5">
+      <c r="A2897" s="1" t="s">
+        <v>5032</v>
+      </c>
+      <c r="B2897" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2897" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2897" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2897" s="1"/>
+    </row>
+    <row r="2898" spans="1:5">
+      <c r="A2898" s="1" t="s">
+        <v>5033</v>
+      </c>
+      <c r="B2898" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2898" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2898" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2898" s="1"/>
+    </row>
+    <row r="2899" spans="1:5">
+      <c r="A2899" s="1" t="s">
+        <v>5034</v>
+      </c>
+      <c r="B2899" s="1" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2899" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2899" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2899" s="1"/>
+    </row>
+    <row r="2900" spans="1:5">
+      <c r="A2900" s="1" t="s">
+        <v>5042</v>
+      </c>
+      <c r="B2900" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C2900" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2900" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2900" s="1"/>
+    </row>
+    <row r="2901" spans="1:5">
+      <c r="A2901" s="1" t="s">
+        <v>5045</v>
+      </c>
+      <c r="B2901" s="2" t="s">
+        <v>5043</v>
+      </c>
+      <c r="C2901" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2901" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2901" s="1"/>
+    </row>
+    <row r="2902" spans="1:5">
+      <c r="A2902" s="1" t="s">
+        <v>5046</v>
+      </c>
+      <c r="B2902" s="2" t="s">
+        <v>5044</v>
+      </c>
+      <c r="C2902" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2902" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2902" s="1"/>
+    </row>
+    <row r="2903" spans="1:5">
+      <c r="A2903" s="1" t="s">
+        <v>5048</v>
+      </c>
+      <c r="B2903" s="2" t="s">
+        <v>5047</v>
+      </c>
+      <c r="C2903" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2903" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2903" s="1"/>
+    </row>
+    <row r="2904" spans="1:5">
+      <c r="A2904" s="1" t="s">
+        <v>5051</v>
+      </c>
+      <c r="B2904" s="2" t="s">
+        <v>5049</v>
+      </c>
+      <c r="C2904" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2904" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2904" s="1"/>
+    </row>
+    <row r="2905" spans="1:5">
+      <c r="A2905" s="1" t="s">
+        <v>5052</v>
+      </c>
+      <c r="B2905" s="2" t="s">
+        <v>5050</v>
+      </c>
+      <c r="C2905" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2905" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2905" s="1"/>
+    </row>
+    <row r="2906" spans="1:5">
+      <c r="A2906" s="1" t="s">
+        <v>5053</v>
+      </c>
+      <c r="B2906" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2906" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2906" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2906" s="1"/>
+    </row>
+    <row r="2907" spans="1:5">
+      <c r="A2907" s="1" t="s">
+        <v>5055</v>
+      </c>
+      <c r="B2907" s="2" t="s">
+        <v>5054</v>
+      </c>
+      <c r="C2907" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2907" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2907" s="1"/>
+    </row>
+    <row r="2908" spans="1:5">
+      <c r="A2908" s="1" t="s">
+        <v>5057</v>
+      </c>
+      <c r="B2908" s="2" t="s">
+        <v>5056</v>
+      </c>
+      <c r="C2908" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2908" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2908" s="1"/>
+    </row>
+    <row r="2909" spans="1:5">
+      <c r="A2909" s="1" t="s">
+        <v>5059</v>
+      </c>
+      <c r="B2909" s="2" t="s">
+        <v>5058</v>
+      </c>
+      <c r="C2909" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2909" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2909" s="1"/>
+    </row>
+    <row r="2910" spans="1:5">
+      <c r="A2910" s="1" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B2910" s="2" t="s">
+        <v>5060</v>
+      </c>
+      <c r="C2910" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2910" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2910" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:5">
+      <c r="A2911" s="1" t="s">
+        <v>5062</v>
+      </c>
+      <c r="B2911" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2911" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2911" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2911" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:5">
+      <c r="A2912" s="1" t="s">
+        <v>5063</v>
+      </c>
+      <c r="B2912" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2912" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2912" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2912" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:5">
+      <c r="A2913" s="1" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B2913" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2913" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2913" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2913" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:5">
+      <c r="A2914" s="1" t="s">
+        <v>5065</v>
+      </c>
+      <c r="B2914" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2914" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2914" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2914" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:5">
+      <c r="A2915" s="1" t="s">
+        <v>5066</v>
+      </c>
+      <c r="B2915" s="2" t="s">
+        <v>5067</v>
+      </c>
+      <c r="C2915" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2915" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2915" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:5">
+      <c r="A2916" s="1" t="s">
+        <v>5068</v>
+      </c>
+      <c r="B2916" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2916" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2916" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2916" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:5">
+      <c r="A2917" s="1" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B2917" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2917" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2917" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2917" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:5">
+      <c r="A2918" s="1" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B2918" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2918" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2918" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2918" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:5">
+      <c r="A2919" s="1" t="s">
+        <v>5071</v>
+      </c>
+      <c r="B2919" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2919" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2919" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2919" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:5">
+      <c r="A2920" s="1" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B2920" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2920" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2920" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2920" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:5">
+      <c r="A2921" s="1" t="s">
+        <v>5073</v>
+      </c>
+      <c r="B2921" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2921" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2921" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2921" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:5">
+      <c r="A2922" s="1" t="s">
+        <v>5074</v>
+      </c>
+      <c r="B2922" s="2" t="s">
+        <v>5078</v>
+      </c>
+      <c r="C2922" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2922" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2922" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:5">
+      <c r="A2923" s="1" t="s">
+        <v>5075</v>
+      </c>
+      <c r="B2923" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2923" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2923" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2923" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:5">
+      <c r="A2924" s="1" t="s">
+        <v>5076</v>
+      </c>
+      <c r="B2924" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2924" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2924" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2924" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:5">
+      <c r="A2925" s="1" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B2925" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2925" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2925" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2925" s="1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:5">
+      <c r="A2926" s="1" t="s">
+        <v>5081</v>
+      </c>
+      <c r="B2926" s="2" t="s">
+        <v>5079</v>
+      </c>
+      <c r="C2926" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2926" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2926" s="1" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:5">
+      <c r="A2927" s="1" t="s">
+        <v>5082</v>
+      </c>
+      <c r="B2927" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2927" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2927" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2927" s="1" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:5">
+      <c r="A2928" s="1" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B2928" s="2" t="s">
+        <v>5080</v>
+      </c>
+      <c r="C2928" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2928" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2928" s="1" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:5">
+      <c r="A2929" s="1" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B2929" s="2" t="s">
+        <v>5096</v>
+      </c>
+      <c r="C2929" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2929" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2929" s="1" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:5">
+      <c r="A2930" s="1" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B2930" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2930" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2930" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2930" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:5">
+      <c r="A2931" s="1" t="s">
+        <v>5086</v>
+      </c>
+      <c r="B2931" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2931" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2931" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2931" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:5">
+      <c r="A2932" s="1" t="s">
+        <v>5087</v>
+      </c>
+      <c r="B2932" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2932" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2932" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2932" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:5">
+      <c r="A2933" s="1" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B2933" s="2" t="s">
+        <v>5098</v>
+      </c>
+      <c r="C2933" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2933" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2933" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:5">
+      <c r="A2934" s="1" t="s">
+        <v>5089</v>
+      </c>
+      <c r="B2934" s="2" t="s">
+        <v>5099</v>
+      </c>
+      <c r="C2934" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2934" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2934" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:5">
+      <c r="A2935" s="1" t="s">
+        <v>5090</v>
+      </c>
+      <c r="B2935" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2935" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2935" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2935" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:5">
+      <c r="A2936" s="1" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B2936" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2936" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2936" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2936" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:5">
+      <c r="A2937" s="1" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B2937" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2937" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2937" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2937" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:5">
+      <c r="A2938" s="1" t="s">
+        <v>5093</v>
+      </c>
+      <c r="B2938" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2938" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2938" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2938" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:5">
+      <c r="A2939" s="1" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B2939" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2939" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2939" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2939" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:5">
+      <c r="A2940" s="1" t="s">
+        <v>5095</v>
+      </c>
+      <c r="B2940" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2940" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2940" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2940" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:5">
+      <c r="A2941" s="1" t="s">
+        <v>5100</v>
+      </c>
+      <c r="B2941" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2941" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2941" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2941" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:5">
+      <c r="A2942" s="1" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B2942" s="2" t="s">
+        <v>5110</v>
+      </c>
+      <c r="C2942" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2942" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2942" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:5">
+      <c r="A2943" s="1" t="s">
+        <v>5102</v>
+      </c>
+      <c r="B2943" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2943" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2943" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2943" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:5">
+      <c r="A2944" s="1" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B2944" s="2" t="s">
+        <v>5111</v>
+      </c>
+      <c r="C2944" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2944" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2944" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:5">
+      <c r="A2945" s="1" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B2945" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2945" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2945" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2945" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:5">
+      <c r="A2946" s="1" t="s">
+        <v>5105</v>
+      </c>
+      <c r="B2946" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2946" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2946" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2946" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:5">
+      <c r="A2947" s="1" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B2947" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2947" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2947" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2947" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:5">
+      <c r="A2948" s="1" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B2948" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2948" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2948" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2948" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:5">
+      <c r="A2949" s="1" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B2949" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2949" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2949" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2949" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:5">
+      <c r="A2950" s="1" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B2950" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2950" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2950" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2950" s="1" t="s">
+        <v>5112</v>
       </c>
     </row>
   </sheetData>

--- a/Meme.xlsx
+++ b/Meme.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13197" uniqueCount="5113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13395" uniqueCount="5185">
   <si>
     <t>Image ID</t>
   </si>
@@ -15374,6 +15374,222 @@
   </si>
   <si>
     <t>https://www.facebook.com/postelikediyennah</t>
+  </si>
+  <si>
+    <t>S-106</t>
+  </si>
+  <si>
+    <t>লর্ড অ্যাসোসিয়ানের পক্ষ হয়ে সভাপতি নাইমের হাত থেকে বিশেষ সম্মাননা প্রদান করা হয়</t>
+  </si>
+  <si>
+    <t>লর্ড অ্যাসোসিয়ান প্রায় ঘন্টা ব্যাপি মিটিং করে আমরা সিদ্ধান্ত নিয়েছি তৌহিদ হৃদয় ও শেখ মেহেদির সিভি জমা নিচ্ছি তবে তাদের বিশ্বকাপের পারফর্মেন্স পর্যবেক্ষণ করে তাদের যৌগ্যতা অনুসারে পদ দেওয়া হবে বলে জানিয়েছেন সংগঠনটির শীর্ষ পর্যায়ের নেতারা</t>
+  </si>
+  <si>
+    <t>S-107</t>
+  </si>
+  <si>
+    <t>S-108</t>
+  </si>
+  <si>
+    <t>S-109</t>
+  </si>
+  <si>
+    <t>S-110</t>
+  </si>
+  <si>
+    <t>S-111</t>
+  </si>
+  <si>
+    <t>S-112</t>
+  </si>
+  <si>
+    <t>O-86</t>
+  </si>
+  <si>
+    <t>O-87</t>
+  </si>
+  <si>
+    <t>O-88</t>
+  </si>
+  <si>
+    <t>O-89</t>
+  </si>
+  <si>
+    <t>O-90</t>
+  </si>
+  <si>
+    <t>O-91</t>
+  </si>
+  <si>
+    <t>O-92</t>
+  </si>
+  <si>
+    <t>O-93</t>
+  </si>
+  <si>
+    <t>O-94</t>
+  </si>
+  <si>
+    <t>O-95</t>
+  </si>
+  <si>
+    <t>O-96</t>
+  </si>
+  <si>
+    <t>O-97</t>
+  </si>
+  <si>
+    <t>O-98</t>
+  </si>
+  <si>
+    <t>O-99</t>
+  </si>
+  <si>
+    <t>O-100</t>
+  </si>
+  <si>
+    <t>O-101</t>
+  </si>
+  <si>
+    <t>O-102</t>
+  </si>
+  <si>
+    <t>O-103</t>
+  </si>
+  <si>
+    <t>O-104</t>
+  </si>
+  <si>
+    <t>O-105</t>
+  </si>
+  <si>
+    <t>O-106</t>
+  </si>
+  <si>
+    <t>O-107</t>
+  </si>
+  <si>
+    <t>কি রে বান্ধবী..!</t>
+  </si>
+  <si>
+    <t>আমার ভালো দেখলে যাদের চু'ল'কা'য়, তারা বড় নখ রাখবেন দয়া করে চু'ল'কা'তে সুবিধা হবে</t>
+  </si>
+  <si>
+    <t>ঘোরার গাড়ী চড়ে সে</t>
+  </si>
+  <si>
+    <t>Me as a father</t>
+  </si>
+  <si>
+    <t>Oh Accha </t>
+  </si>
+  <si>
+    <t>Sad life</t>
+  </si>
+  <si>
+    <t>O-108</t>
+  </si>
+  <si>
+    <t>O-109</t>
+  </si>
+  <si>
+    <t>O-110</t>
+  </si>
+  <si>
+    <t>O-111</t>
+  </si>
+  <si>
+    <t>O-112</t>
+  </si>
+  <si>
+    <t>O-113</t>
+  </si>
+  <si>
+    <t>O-114</t>
+  </si>
+  <si>
+    <t>O-115</t>
+  </si>
+  <si>
+    <t>O-116</t>
+  </si>
+  <si>
+    <t>O-117</t>
+  </si>
+  <si>
+    <t>O-118</t>
+  </si>
+  <si>
+    <t>O-119</t>
+  </si>
+  <si>
+    <t>O-120</t>
+  </si>
+  <si>
+    <t>O-121</t>
+  </si>
+  <si>
+    <t>O-122</t>
+  </si>
+  <si>
+    <t>O-123</t>
+  </si>
+  <si>
+    <t>O-124</t>
+  </si>
+  <si>
+    <t>O-125</t>
+  </si>
+  <si>
+    <t>O-126</t>
+  </si>
+  <si>
+    <t>O-127</t>
+  </si>
+  <si>
+    <t>O-128</t>
+  </si>
+  <si>
+    <t>আসুন সবাই মিলে শপথ করি, যৌতুক মুক্ত দেশ গড়ি.....</t>
+  </si>
+  <si>
+    <t>হ্যা কিন্তু......</t>
+  </si>
+  <si>
+    <t>জেনে উপকার হলো....</t>
+  </si>
+  <si>
+    <t>একদম সহজ পানির মতো.....</t>
+  </si>
+  <si>
+    <t>এই দুঃখ কই রাখি </t>
+  </si>
+  <si>
+    <t>একেমন ভ ণ্ডামি.....</t>
+  </si>
+  <si>
+    <t>এডিসি সানজিদা যা বলতে চাচ্ছে.....</t>
+  </si>
+  <si>
+    <t>চাচা : নেতাতো শুধু শিঙাড়ার ট্যাকা দিবে বলছিলো তাও পরে......</t>
+  </si>
+  <si>
+    <t>কারো কষ্ট বুঝতে বয়স লাগেনা....</t>
+  </si>
+  <si>
+    <t>বাতেইন্না রাজাকার....</t>
+  </si>
+  <si>
+    <t>বিশিষ্ট বিশেষজ্ঞর ফলো পান নাই ফেসবুকে আছেন কিসের জন্য</t>
+  </si>
+  <si>
+    <t>সরি ওটা দিল্লি স্টার হবে.....</t>
+  </si>
+  <si>
+    <t>বেডা মানুষের জীবন...</t>
+  </si>
+  <si>
+    <t>খারাপ না</t>
   </si>
 </sst>
 </file>
@@ -15511,7 +15727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -15577,6 +15793,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16078,10 +16300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2950"/>
+  <dimension ref="A1:E3000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2946" workbookViewId="0">
-      <selection activeCell="E2961" sqref="E2961"/>
+    <sheetView tabSelected="1" topLeftCell="A2978" workbookViewId="0">
+      <selection activeCell="E2986" sqref="E2986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16137,7 +16359,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -16392,7 +16614,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -16692,7 +16914,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1"/>
     </row>
@@ -16767,7 +16989,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -16782,7 +17004,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E46" s="1"/>
     </row>
@@ -16872,7 +17094,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -17187,7 +17409,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E73" s="1"/>
     </row>
@@ -17202,7 +17424,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E74" s="1"/>
     </row>
@@ -17307,7 +17529,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E81" s="1"/>
     </row>
@@ -17367,7 +17589,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -17562,7 +17784,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E98" s="1"/>
     </row>
@@ -17622,7 +17844,7 @@
         <v>10</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E102" s="1"/>
     </row>
@@ -17637,7 +17859,7 @@
         <v>10</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E103" s="1"/>
     </row>
@@ -17652,7 +17874,7 @@
         <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E104" s="1"/>
     </row>
@@ -17907,7 +18129,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E121" s="1"/>
     </row>
@@ -18385,7 +18607,7 @@
         <v>7</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E153" s="1"/>
     </row>
@@ -18445,7 +18667,7 @@
         <v>7</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E157" s="1"/>
     </row>
@@ -18475,7 +18697,7 @@
         <v>7</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E159" s="1"/>
     </row>
@@ -18505,7 +18727,7 @@
         <v>7</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E161" s="1"/>
     </row>
@@ -18520,7 +18742,7 @@
         <v>7</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E162" s="1"/>
     </row>
@@ -18595,7 +18817,7 @@
         <v>7</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E167" s="1"/>
     </row>
@@ -18640,7 +18862,7 @@
         <v>7</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E170" s="1"/>
     </row>
@@ -18670,7 +18892,7 @@
         <v>7</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E172" s="1"/>
     </row>
@@ -18685,7 +18907,7 @@
         <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E173" s="1"/>
     </row>
@@ -18775,7 +18997,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E179" s="1"/>
     </row>
@@ -18790,7 +19012,7 @@
         <v>7</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E180" s="1"/>
     </row>
@@ -18805,7 +19027,7 @@
         <v>7</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E181" s="1"/>
     </row>
@@ -18850,7 +19072,7 @@
         <v>7</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E184" s="1"/>
     </row>
@@ -18895,7 +19117,7 @@
         <v>7</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E187" s="1"/>
     </row>
@@ -18910,7 +19132,7 @@
         <v>7</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E188" s="1"/>
     </row>
@@ -18925,7 +19147,7 @@
         <v>7</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E189" s="1"/>
     </row>
@@ -18940,7 +19162,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E190" s="1"/>
     </row>
@@ -18955,7 +19177,7 @@
         <v>7</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E191" s="1"/>
     </row>
@@ -18970,7 +19192,7 @@
         <v>7</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E192" s="1"/>
     </row>
@@ -19015,7 +19237,7 @@
         <v>7</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E195" s="1"/>
     </row>
@@ -19030,7 +19252,7 @@
         <v>7</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E196" s="1"/>
     </row>
@@ -19045,7 +19267,7 @@
         <v>7</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E197" s="1"/>
     </row>
@@ -19075,7 +19297,7 @@
         <v>7</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E199" s="1"/>
     </row>
@@ -19090,7 +19312,7 @@
         <v>7</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E200" s="1"/>
     </row>
@@ -19105,7 +19327,7 @@
         <v>7</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E201" s="1"/>
     </row>
@@ -19120,7 +19342,7 @@
         <v>7</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E202" s="1"/>
     </row>
@@ -19135,7 +19357,7 @@
         <v>7</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E203" s="1"/>
     </row>
@@ -19150,7 +19372,7 @@
         <v>7</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E204" s="1"/>
     </row>
@@ -19165,7 +19387,7 @@
         <v>7</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E205" s="1"/>
     </row>
@@ -19180,7 +19402,7 @@
         <v>7</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E206" s="1"/>
     </row>
@@ -19195,7 +19417,7 @@
         <v>7</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E207" s="1"/>
     </row>
@@ -19210,7 +19432,7 @@
         <v>7</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E208" s="1"/>
     </row>
@@ -19225,7 +19447,7 @@
         <v>7</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E209" s="1"/>
     </row>
@@ -19240,7 +19462,7 @@
         <v>7</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E210" s="1"/>
     </row>
@@ -19255,7 +19477,7 @@
         <v>7</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E211" s="1"/>
     </row>
@@ -19270,7 +19492,7 @@
         <v>7</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E212" s="1"/>
     </row>
@@ -19285,7 +19507,7 @@
         <v>7</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E213" s="1"/>
     </row>
@@ -19300,7 +19522,7 @@
         <v>7</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E214" s="1"/>
     </row>
@@ -19315,7 +19537,7 @@
         <v>7</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E215" s="1"/>
     </row>
@@ -19330,7 +19552,7 @@
         <v>7</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E216" s="1"/>
     </row>
@@ -63138,6 +63360,703 @@
       </c>
       <c r="E2950" s="1" t="s">
         <v>5112</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:5">
+      <c r="A2951" s="1" t="s">
+        <v>5113</v>
+      </c>
+      <c r="B2951" s="23" t="s">
+        <v>5114</v>
+      </c>
+      <c r="D2951" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:5">
+      <c r="A2952" s="1" t="s">
+        <v>5116</v>
+      </c>
+      <c r="B2952" s="24" t="s">
+        <v>5115</v>
+      </c>
+      <c r="C2952" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2952" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:5">
+      <c r="A2953" s="1" t="s">
+        <v>5117</v>
+      </c>
+      <c r="B2953" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2953" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2953" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:5">
+      <c r="A2954" s="1" t="s">
+        <v>5118</v>
+      </c>
+      <c r="B2954" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2954" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2954" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:5">
+      <c r="A2955" s="1" t="s">
+        <v>5119</v>
+      </c>
+      <c r="B2955" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2955" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2955" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:5">
+      <c r="A2956" s="1" t="s">
+        <v>5120</v>
+      </c>
+      <c r="B2956" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2956" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2956" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:5">
+      <c r="A2957" s="1" t="s">
+        <v>5121</v>
+      </c>
+      <c r="B2957" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2957" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2957" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:5">
+      <c r="A2958" s="1" t="s">
+        <v>5122</v>
+      </c>
+      <c r="B2958" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2958" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2958" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:5">
+      <c r="A2959" s="1" t="s">
+        <v>5123</v>
+      </c>
+      <c r="B2959" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2959" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2959" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" s="1" t="s">
+        <v>5124</v>
+      </c>
+      <c r="B2960" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2960" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2960" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:4">
+      <c r="A2961" s="1" t="s">
+        <v>5125</v>
+      </c>
+      <c r="B2961" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2961" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2961" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:4">
+      <c r="A2962" s="1" t="s">
+        <v>5126</v>
+      </c>
+      <c r="B2962" s="3" t="s">
+        <v>5144</v>
+      </c>
+      <c r="C2962" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2962" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:4">
+      <c r="A2963" s="1" t="s">
+        <v>5127</v>
+      </c>
+      <c r="B2963" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2963" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2963" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:4">
+      <c r="A2964" s="1" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B2964" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2964" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2964" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:4">
+      <c r="A2965" s="1" t="s">
+        <v>5129</v>
+      </c>
+      <c r="B2965" s="3" t="s">
+        <v>5145</v>
+      </c>
+      <c r="C2965" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2965" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:4">
+      <c r="A2966" s="1" t="s">
+        <v>5130</v>
+      </c>
+      <c r="B2966" s="3" t="s">
+        <v>5146</v>
+      </c>
+      <c r="C2966" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2966" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:4">
+      <c r="A2967" s="1" t="s">
+        <v>5131</v>
+      </c>
+      <c r="B2967" s="3" t="s">
+        <v>5147</v>
+      </c>
+      <c r="C2967" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2967" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:4">
+      <c r="A2968" s="1" t="s">
+        <v>5132</v>
+      </c>
+      <c r="B2968" s="3" t="s">
+        <v>5148</v>
+      </c>
+      <c r="C2968" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2968" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:4">
+      <c r="A2969" s="1" t="s">
+        <v>5133</v>
+      </c>
+      <c r="B2969" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2969" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2969" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:4">
+      <c r="A2970" s="1" t="s">
+        <v>5134</v>
+      </c>
+      <c r="B2970" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2970" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2970" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:4">
+      <c r="A2971" s="1" t="s">
+        <v>5135</v>
+      </c>
+      <c r="B2971" s="3" t="s">
+        <v>5149</v>
+      </c>
+      <c r="C2971" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2971" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:4">
+      <c r="A2972" s="1" t="s">
+        <v>5136</v>
+      </c>
+      <c r="B2972" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2972" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2972" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:4">
+      <c r="A2973" s="1" t="s">
+        <v>5137</v>
+      </c>
+      <c r="B2973" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2973" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2973" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:4">
+      <c r="A2974" s="1" t="s">
+        <v>5138</v>
+      </c>
+      <c r="B2974" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2974" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2974" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:4">
+      <c r="A2975" s="1" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B2975" s="23" t="s">
+        <v>5067</v>
+      </c>
+      <c r="C2975" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2975" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:4">
+      <c r="A2976" s="1" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B2976" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2976" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2976" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:4">
+      <c r="A2977" s="1" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B2977" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2977" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2977" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:4">
+      <c r="A2978" s="1" t="s">
+        <v>5142</v>
+      </c>
+      <c r="B2978" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2978" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2978" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:4">
+      <c r="A2979" s="1" t="s">
+        <v>5143</v>
+      </c>
+      <c r="B2979" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2979" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2979" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:4">
+      <c r="A2980" s="1" t="s">
+        <v>5150</v>
+      </c>
+      <c r="B2980" s="23" t="s">
+        <v>5078</v>
+      </c>
+      <c r="C2980" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2980" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:4">
+      <c r="A2981" s="1" t="s">
+        <v>5151</v>
+      </c>
+      <c r="B2981" s="3" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2981" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2981" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:4">
+      <c r="A2982" s="1" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B2982" s="3" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2982" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2982" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:4">
+      <c r="A2983" s="1" t="s">
+        <v>5153</v>
+      </c>
+      <c r="B2983" s="23" t="s">
+        <v>5171</v>
+      </c>
+      <c r="C2983" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2983" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:4">
+      <c r="A2984" s="1" t="s">
+        <v>5154</v>
+      </c>
+      <c r="B2984" s="23" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C2984" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2984" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:4">
+      <c r="A2985" s="1" t="s">
+        <v>5155</v>
+      </c>
+      <c r="B2985" s="23" t="s">
+        <v>5173</v>
+      </c>
+      <c r="C2985" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2985" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:4">
+      <c r="A2986" s="1" t="s">
+        <v>5156</v>
+      </c>
+      <c r="B2986" s="23" t="s">
+        <v>5174</v>
+      </c>
+      <c r="C2986" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2986" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:4">
+      <c r="A2987" s="1" t="s">
+        <v>5157</v>
+      </c>
+      <c r="B2987" s="23" t="s">
+        <v>5175</v>
+      </c>
+      <c r="C2987" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2987" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:4">
+      <c r="A2988" s="1" t="s">
+        <v>5158</v>
+      </c>
+      <c r="B2988" s="23" t="s">
+        <v>5176</v>
+      </c>
+      <c r="C2988" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2988" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:4">
+      <c r="A2989" s="1" t="s">
+        <v>5159</v>
+      </c>
+      <c r="B2989" s="23" t="s">
+        <v>5177</v>
+      </c>
+      <c r="C2989" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2989" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:4">
+      <c r="A2990" s="1" t="s">
+        <v>5160</v>
+      </c>
+      <c r="B2990" s="23" t="s">
+        <v>5178</v>
+      </c>
+      <c r="C2990" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2990" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:4">
+      <c r="A2991" s="1" t="s">
+        <v>5161</v>
+      </c>
+      <c r="B2991" s="23" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C2991" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2991" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:4">
+      <c r="A2992" s="1" t="s">
+        <v>5162</v>
+      </c>
+      <c r="B2992" s="26" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2992" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2992" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:4">
+      <c r="A2993" s="1" t="s">
+        <v>5163</v>
+      </c>
+      <c r="B2993" s="23" t="s">
+        <v>5180</v>
+      </c>
+      <c r="C2993" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2993" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:4">
+      <c r="A2994" s="1" t="s">
+        <v>5164</v>
+      </c>
+      <c r="B2994" s="23" t="s">
+        <v>5181</v>
+      </c>
+      <c r="C2994" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2994" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:4">
+      <c r="A2995" s="1" t="s">
+        <v>5165</v>
+      </c>
+      <c r="B2995" s="23" t="s">
+        <v>5182</v>
+      </c>
+      <c r="C2995" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2995" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:4">
+      <c r="A2996" s="1" t="s">
+        <v>5166</v>
+      </c>
+      <c r="B2996" s="23" t="s">
+        <v>5183</v>
+      </c>
+      <c r="C2996" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2996" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:4">
+      <c r="A2997" s="1" t="s">
+        <v>5167</v>
+      </c>
+      <c r="B2997" s="26" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2997" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2997" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:4">
+      <c r="A2998" s="1" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B2998" s="26" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C2998" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2998" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:4">
+      <c r="A2999" s="1" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B2999" s="23" t="s">
+        <v>5184</v>
+      </c>
+      <c r="C2999" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D2999" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:4">
+      <c r="A3000" s="1" t="s">
+        <v>5170</v>
+      </c>
+      <c r="B3000" s="26" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C3000" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="D3000" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -63151,9 +64070,10 @@
     <hyperlink ref="E1333:E1337" r:id="rId7" display="https://www.facebook.com/Hasinafaa"/>
     <hyperlink ref="E1402:E1407" r:id="rId8" display="https://www.facebook.com/BanglaTribuneOnline/photos"/>
     <hyperlink ref="E1408" r:id="rId9"/>
+    <hyperlink ref="B2952" r:id="rId10" display="https://www.facebook.com/profile.php?id=100081525999925&amp;__tn__=-%5dK*F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>